--- a/firstTest/Default.xlsx
+++ b/firstTest/Default.xlsx
@@ -469,14 +469,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/firstTest/Default.xlsx
+++ b/firstTest/Default.xlsx
@@ -14,6 +14,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>nItems</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
@@ -154,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,13 +170,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -467,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -475,10 +499,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/firstTest/Default.xlsx
+++ b/firstTest/Default.xlsx
@@ -15,9 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>device_manufacturer</t>
+  </si>
+  <si>
+    <t>device_model</t>
+  </si>
   <si>
     <t>nItems</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>device_ostype</t>
+  </si>
+  <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>CartTotal</t>
+  </si>
+  <si>
+    <t>TOTAL: $600.00</t>
   </si>
 </sst>
 </file>
@@ -162,12 +186,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -187,12 +222,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -491,32 +529,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.95703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -533,7 +615,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>

--- a/firstTest/Default.xlsx
+++ b/firstTest/Default.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Browser</t>
   </si>
   <si>
     <t>device_manufacturer</t>
+  </si>
+  <si>
+    <t>CHROME</t>
   </si>
   <si>
     <t>device_model</t>
@@ -532,7 +535,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -546,22 +549,22 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -569,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -584,7 +587,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -595,7 +598,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>

--- a/firstTest/Default.xlsx
+++ b/firstTest/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Shop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -35,10 +35,10 @@
     <t>IE</t>
   </si>
   <si>
+    <t>CHROMIUMEDGE</t>
+  </si>
+  <si>
     <t>device_ostype</t>
-  </si>
-  <si>
-    <t>EDGE</t>
   </si>
   <si>
     <t>CartTotal</t>
@@ -535,19 +535,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.34765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.95703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
+    <row r="1" customFormat="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +588,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -620,10 +621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="15.1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
